--- a/EOExp01/EOExp01.xlsx
+++ b/EOExp01/EOExp01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ian\NTU\1092\Photonics Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ian\NTU\1092\Photonics Experiment\EOExp\EOExp01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B60D73-8E6C-4DD4-8306-F1DBA462604B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA14CFA-2E94-4869-99DE-E88C1345F657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{940EFE69-0A3B-4F95-BAC3-1ADC9401B010}"/>
   </bookViews>
@@ -402,6 +402,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FDF4-4102-939F-8DF8F72AB537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5779109712226295E-2"/>
+                  <c:y val="3.9094929684782426E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55000000000000104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35000000000000098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4141-44CD-9674-7A5BA383750F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.990391411130145E-2"/>
+                  <c:y val="0.15052444238311624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55000000000000104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35000000000000098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4141-44CD-9674-7A5BA383750F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1486,15 +1812,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08ACAA4-8B3C-4F69-953C-C0D98F87C89F}">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.95</v>
       </c>
@@ -1515,8 +1841,14 @@
       <c r="D2">
         <v>47</v>
       </c>
+      <c r="E2">
+        <v>58.3</v>
+      </c>
+      <c r="F2">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>0.9</v>
       </c>
@@ -1526,8 +1858,14 @@
       <c r="D3">
         <v>44.2</v>
       </c>
+      <c r="E3">
+        <v>53.2</v>
+      </c>
+      <c r="F3">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>0.85</v>
       </c>
@@ -1537,8 +1875,14 @@
       <c r="D4">
         <v>41.2</v>
       </c>
+      <c r="E4">
+        <v>46.8</v>
+      </c>
+      <c r="F4">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>0.8</v>
       </c>
@@ -1548,8 +1892,14 @@
       <c r="D5">
         <v>38.5</v>
       </c>
+      <c r="E5">
+        <v>41.2</v>
+      </c>
+      <c r="F5">
+        <v>38.5</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0.75</v>
       </c>
@@ -1559,8 +1909,14 @@
       <c r="D6">
         <v>34.799999999999997</v>
       </c>
+      <c r="E6">
+        <v>35.5</v>
+      </c>
+      <c r="F6">
+        <v>34.799999999999997</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0.7</v>
       </c>
@@ -1570,8 +1926,14 @@
       <c r="D7">
         <v>30.8</v>
       </c>
+      <c r="E7">
+        <v>28.6</v>
+      </c>
+      <c r="F7">
+        <v>30.8</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0.65</v>
       </c>
@@ -1581,8 +1943,14 @@
       <c r="D8">
         <v>26.9</v>
       </c>
+      <c r="E8">
+        <v>26.4</v>
+      </c>
+      <c r="F8">
+        <v>26.9</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0.6</v>
       </c>
@@ -1592,8 +1960,14 @@
       <c r="D9">
         <v>22.7</v>
       </c>
+      <c r="E9">
+        <v>21.5</v>
+      </c>
+      <c r="F9">
+        <v>22.7</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0.55000000000000104</v>
       </c>
@@ -1604,7 +1978,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0.500000000000001</v>
       </c>
@@ -1615,7 +1989,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0.45000000000000101</v>
       </c>
@@ -1626,7 +2000,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0.40000000000000102</v>
       </c>
@@ -1637,7 +2011,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>0.35000000000000098</v>
       </c>
